--- a/biology/Médecine/Banque_de_cellules_souches_issues_du_sang_de_cordon/Banque_de_cellules_souches_issues_du_sang_de_cordon.xlsx
+++ b/biology/Médecine/Banque_de_cellules_souches_issues_du_sang_de_cordon/Banque_de_cellules_souches_issues_du_sang_de_cordon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe dans le monde - surtout dans les pays anglo-saxons - environ 134 banques de cellules souches issues du sang de cordon qui sont des établissements privés.
 Leur implantation en Europe est strictement interdite en France, en Italie et en Espagne, pour le moment. Cependant, dans ces pays-là, le prélèvement de sang de cordon est autorisé. 
@@ -514,7 +526,9 @@
           <t>Sang de cordon</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sang de cordon, ou sang placentaire, est le sang contenu dans le placenta et le cordon ombilical des mammifères (autrefois considéré comme un « déchet opératoire », mais présentant aujourd'hui un intérêt pour la médecine régénérative. 
 Le sang du cordon contient :
@@ -551,18 +565,20 @@
           <t>Collecte à fins thérapeutique ou de recherche</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le sang de cordon de la souris a été un des premiers utilisés pour effectuer des recherches sur ses composantes et ses bénéfices.
 Chez l'humain, En 1987, l'équipe du professeur Eliane Gluckman réussissaient la première greffe mondiale de sang de cordon, guérissant un enfant atteint d'anémie de Fanconi (grave leucémie induite par un dysfonctionnement de la moelle osseuse). Depuis, le sang du cordon est collecté après la naissance de nombreux enfants dans un nombre croissant de pays. Il est prélevé et analysé pour quantifier le nombre de globules blancs et de cellules souches qu'il contient.
-S'il répond à certaines conditions (variables selon les pays et les évolutions de la législation), ce sang de cordon est conservé pour utiliser les cellules-souches qu'il contient. En France environ 30 % des cordons répondent à ces critères et sont conservés[1].
+S'il répond à certaines conditions (variables selon les pays et les évolutions de la législation), ce sang de cordon est conservé pour utiliser les cellules-souches qu'il contient. En France environ 30 % des cordons répondent à ces critères et sont conservés.
 Les parents peuvent faire don du sang de cordon à une banque publique de sang placentaire, afin qu'il puisse être utilisé pour sauver la vie d'un enfant ou d'un adulte principalement dans certains cas de cancers. Dans certains pays, il peut aussi être mis dans une banque privée (pour une utilisation personnelle future), la banque privée offrant à la famille, contre une somme d'argent, de congeler et stocker le cordon de leur enfant (non autorisé en France, mais un projet de loi évoque cette possibilité et provoque de fortes controverses, notamment autour des enjeux suivants ;
 aspects non éthiques de la marchandisation du vivant ou de cellules humaines
 risques de dérives liées aux coûts de conservation
 forts doutes sur l'intérêt médical de greffe autologue dans le cas des maladies qu'on veut ici soigner, car
 la probabilité d'utiliser ce sang de cordon dans la famille donneuse est de moins de 0,04 % ;
 il faut souvent pour ce type de greffe deux cordons pour obtenir une quantité utile de cellules
-si aucun expert du monde médical ne conteste l'intérêt de la greffe allogénique qui apporte à un malade des éléments du système immunitaire d'un donneur sain, le greffon autologue de sang de cordon est généralement considéré comme a priori inutile, voire dangereux pour le receveur. Par exemple, en cas de cancer du sang, des cellules malades peuvent être réinoculées au receveur, et on sait que nombre de leucémies sont initiées avant la naissance[1]. Il n'existe aucun fondement scientifique pour justifier la greffe autologue a rappelé l'Agence de la biomédecine en réaction à une proposition de loi de Damien Meslot visant à implanter en France des banques privées de sang placentaire (alors qu'il existait déjà en 2009 l'Établissement français du sang (ancienne Agence française du sang), 5 banques publiques de sang placentaire et que l'ouverture de 3 autres est prévue courant 2010).</t>
+si aucun expert du monde médical ne conteste l'intérêt de la greffe allogénique qui apporte à un malade des éléments du système immunitaire d'un donneur sain, le greffon autologue de sang de cordon est généralement considéré comme a priori inutile, voire dangereux pour le receveur. Par exemple, en cas de cancer du sang, des cellules malades peuvent être réinoculées au receveur, et on sait que nombre de leucémies sont initiées avant la naissance. Il n'existe aucun fondement scientifique pour justifier la greffe autologue a rappelé l'Agence de la biomédecine en réaction à une proposition de loi de Damien Meslot visant à implanter en France des banques privées de sang placentaire (alors qu'il existait déjà en 2009 l'Établissement français du sang (ancienne Agence française du sang), 5 banques publiques de sang placentaire et que l'ouverture de 3 autres est prévue courant 2010).</t>
         </is>
       </c>
     </row>
@@ -590,16 +606,15 @@
           <t>Les acteurs de la collecte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Ce sont d'abord les maternités associées aux programmes de collecte.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont d'abord les maternités associées aux programmes de collecte.
 La collecte et les utilisations émergentes de ce sang ont généré en 1995 la création d'Eurocord, association créée par le Pr. Eliane Gluckman pour la gestion et le suivi de l’ensemble des greffes de sang de cordon à échelle mondiale, et pour également valider les données cliniques susceptibles d'être collectées ce faisant.
-Parallèlement, le secteur privé a développé une fondation Netcord, à but non lucratif, proposant un ensemble de critères de qualité du stockage du sang de cordon, imposés en 2009 à 336 banques dans le monde[2], critères moins exigeants que ceux retenus par la France (volume supérieur à 70 mL et plus de 2.106 cellules souches dans ce volume).
+Parallèlement, le secteur privé a développé une fondation Netcord, à but non lucratif, proposant un ensemble de critères de qualité du stockage du sang de cordon, imposés en 2009 à 336 banques dans le monde, critères moins exigeants que ceux retenus par la France (volume supérieur à 70 mL et plus de 2.106 cellules souches dans ce volume).
 En Europe, le secteur privé de la cryogénisation de sang de cordon serait Cryosave.
-Banques publiques ou privées ?
-Elles coexistent dans quelques pays (Allemagne, Danemark, Pays-Bas, Pologne, Royaume-Uni, Canada, États-Unis en 2008, où la loi n'impose pas de statut public ou privé à ces banques, se contentant d'exiger une simple autorisation administrative. Les banques publiques n'achètent pas le sang, et si un particulier veut conserver ce sang pour son enfant plus tard, il doit verser 2 000 $ à 3 000 $ pour l'inscription et le recueil du sang, puis de 100 $ à 200 $/an pour sa conservation (ordre de grandeur valable en 2008) ;
-D'autres pays (Belgique, Espagne, Italie, interdisaient les banques privées, mais ont récemment assoupli leur règlementation ou sont en train de le faire ;
-En France, à ce jour seules les banques publiques de sang placentaire sont autorisées[3]. L'Agence française du sang (devenue l'Établissement français du sang le 1er janvier 2000) avec l'Établissement français des greffes, (devenu l'Agence de la biomédecine le 10 mai 2005), ont en 1999 créé le réseau français de sang placentaire (association à but non lucratif) pour gérer ces questions. Selon le sénat, en 2008, la France disposait d'environ 6 000 unités de sang placentaire cryogénisé, alors que certains experts estiment que 50 000 seraient idéalement nécessaire pour couvrir les besoins et ne pas devoir régulièrement importer des greffons (à un prix de 15 000 à 25 000 € l'unité, et il en faut parfois deux pour un malade), ce pourquoi les autorités médicales ont planifié d'augmenter la collecte et le nombre de maternités partenaires, visant 10 000 unités de sang placentaire avant fin 2010. Le don de cordon est en France bénévole, anonyme et gratuit. Les greffons stockés sont inscrits dans le registre national « France Greffe de Moelle », géré par l'Agence de la biomédecine. Ce sang est à disposition des hôpitaux ou cliniques pour des greffes allogéniques. Les greffes autologues ne sont pas explicitement interdites, mais outre qu'elles pourraient être dangereuses, « aucun établissement n'a demandé d'agrément en vue d'une telle activité » [3].</t>
+</t>
         </is>
       </c>
     </row>
@@ -624,13 +639,20 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Propriétés</t>
+          <t>Les acteurs de la collecte</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">La principale catégorie de cellules-souches contenues dans le sang du cordon est appelée hématopoïétique. Ces cellules souches dites 'mères' sont également présentes dans la moelle osseuse. Elles fournissent au système sanguin tous les globules rouges, les plaquettes et les globules blancs nécessaires à la vie. Lors d'une transplantation de cellules souches anciennement nommée transplantation de moelle osseuse, une compatibilité entre le donneur  et le receveur est nécessaire au succès de celle-ci. Les parents sont compatibles à 50 % avec leurs enfants puisque chaque parent donne la moitié de son code génétique à l'enfant. Entre frères et sœurs de même parents, la probabilité de compatibilité n'est que de 25 % soit un enfant sur quatre. 
-</t>
+          <t>Banques publiques ou privées ?</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Elles coexistent dans quelques pays (Allemagne, Danemark, Pays-Bas, Pologne, Royaume-Uni, Canada, États-Unis en 2008, où la loi n'impose pas de statut public ou privé à ces banques, se contentant d'exiger une simple autorisation administrative. Les banques publiques n'achètent pas le sang, et si un particulier veut conserver ce sang pour son enfant plus tard, il doit verser 2 000 $ à 3 000 $ pour l'inscription et le recueil du sang, puis de 100 $ à 200 $/an pour sa conservation (ordre de grandeur valable en 2008) ;
+D'autres pays (Belgique, Espagne, Italie, interdisaient les banques privées, mais ont récemment assoupli leur règlementation ou sont en train de le faire ;
+En France, à ce jour seules les banques publiques de sang placentaire sont autorisées. L'Agence française du sang (devenue l'Établissement français du sang le 1er janvier 2000) avec l'Établissement français des greffes, (devenu l'Agence de la biomédecine le 10 mai 2005), ont en 1999 créé le réseau français de sang placentaire (association à but non lucratif) pour gérer ces questions. Selon le sénat, en 2008, la France disposait d'environ 6 000 unités de sang placentaire cryogénisé, alors que certains experts estiment que 50 000 seraient idéalement nécessaire pour couvrir les besoins et ne pas devoir régulièrement importer des greffons (à un prix de 15 000 à 25 000 € l'unité, et il en faut parfois deux pour un malade), ce pourquoi les autorités médicales ont planifié d'augmenter la collecte et le nombre de maternités partenaires, visant 10 000 unités de sang placentaire avant fin 2010. Le don de cordon est en France bénévole, anonyme et gratuit. Les greffons stockés sont inscrits dans le registre national « France Greffe de Moelle », géré par l'Agence de la biomédecine. Ce sang est à disposition des hôpitaux ou cliniques pour des greffes allogéniques. Les greffes autologues ne sont pas explicitement interdites, mais outre qu'elles pourraient être dangereuses, « aucun établissement n'a demandé d'agrément en vue d'une telle activité » .</t>
         </is>
       </c>
     </row>
@@ -655,10 +677,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Propriétés</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La principale catégorie de cellules-souches contenues dans le sang du cordon est appelée hématopoïétique. Ces cellules souches dites 'mères' sont également présentes dans la moelle osseuse. Elles fournissent au système sanguin tous les globules rouges, les plaquettes et les globules blancs nécessaires à la vie. Lors d'une transplantation de cellules souches anciennement nommée transplantation de moelle osseuse, une compatibilité entre le donneur  et le receveur est nécessaire au succès de celle-ci. Les parents sont compatibles à 50 % avec leurs enfants puisque chaque parent donne la moitié de son code génétique à l'enfant. Entre frères et sœurs de même parents, la probabilité de compatibilité n'est que de 25 % soit un enfant sur quatre. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Banque_de_cellules_souches_issues_du_sang_de_cordon</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Banque_de_cellules_souches_issues_du_sang_de_cordon</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Prélèvement, stockage et coûts</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez l'humain, le sang du cordon ombilical et du placenta est recueilli après que le cordon a été sectionné du nouveau-né. Le sang peut être collecté alors que le placenta est encore dans l'utérus, (méthode dite in utero) ou après que le placenta a été expulsé de l'utérus (méthode dite appelée ex utero). Lorsque collecté ex utero, le placenta est placé sur un champ stérile permettant de laisser pendre le cordon ombilical. Après désinfection, une aiguille connectée à un sac est insérée dans la veine du cordon. Le sang de cordon est recueilli par gravité dans un dispositif de collecte similaire à celui utilisé lors de don de sang. La collecte moyenne est de 75 mL (10mL à 250mL). 
 La banque publique de sang de cordon analyse ensuite ce sang pour y détecter d'éventuels agents infectieux, et son « type tissulaire » est déterminé. Dans la plupart des banques publiques, le sang de cordon est traité afin d'en ôter les globules rouges, avant d'être stocké dans l'azote liquide pour utilisation ultérieure. 
@@ -668,32 +725,6 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Banque_de_cellules_souches_issues_du_sang_de_cordon</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Banque_de_cellules_souches_issues_du_sang_de_cordon</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Utilisation</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-    </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
@@ -715,10 +746,40 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Banque_de_cellules_souches_issues_du_sang_de_cordon</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Banque_de_cellules_souches_issues_du_sang_de_cordon</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Maladies traitées avec du sang de cordon</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette section est en travaux
 Dès la fin des années 1980, les cellules-souches de sang de cordon ont été utilisées pour traiter les cancers cancers hématologiques. D'autres maladies tel les maladies génétiques peuvent probablement être traitées à l'aide des cellules souches provenant du sang de cordon mais cette probabilité fait partie uniquement d'études préliminaires. Les cancers actuellement traités par des transplantations de cellules souches font partie des catégories des leucémies, des lymphomes et des myelomes. Cela concerne à l'heure actuelle environ 75 maladies, parmi lesquelles :
